--- a/data/checked/china/zhejiang/zhejiangCaseStatistics_20200322.xlsx
+++ b/data/checked/china/zhejiang/zhejiangCaseStatistics_20200322.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\zhejiang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\checked\china\zhejiang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EE7D67-FFC7-4919-890B-19CEDE39EC12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D94A0C-1476-4535-B02C-437CCF0D5546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4310" yWindow="770" windowWidth="16920" windowHeight="11680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10839,8 +10839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -11916,7 +11916,7 @@
         <v>21</v>
       </c>
       <c r="O18" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" s="13" t="s">
         <v>3292</v>
@@ -11973,7 +11973,7 @@
         <v>1238</v>
       </c>
       <c r="O19" s="13">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="P19" s="13">
         <v>1</v>
